--- a/Personal/yangyunfeng/计划表（修改）.xlsx
+++ b/Personal/yangyunfeng/计划表（修改）.xlsx
@@ -94,11 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学习python“数字”和“注释”两个小节 
-英语单词（随机学习四级词汇表中50-80个单词）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>回顾当天所学内容，找几篇英语听力听</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,6 +129,11 @@
   </si>
   <si>
     <t>大概浏览预习python的后一章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习python“数字”和“注释”两个小节  
+英语单词（随机学习四级词汇表中50-80个单词）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -234,6 +234,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -245,33 +272,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -557,7 +557,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:J16"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -568,214 +568,208 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
       <c r="J2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="14">
         <v>43117</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
       <c r="J4" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
+      <c r="A6" s="6">
         <v>43118</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-    </row>
-    <row r="7" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <v>43119</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="9" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16">
-        <v>43119</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
+      <c r="A10" s="12"/>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
+      <c r="C10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="12" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
+      <c r="A12" s="6">
         <v>43120</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
+      <c r="C12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
+      <c r="A13" s="7"/>
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="C13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="15" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
+      <c r="A15" s="6">
         <v>43120</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-    </row>
-    <row r="16" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" t="s">
+      <c r="C16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C13:J13"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:J6"/>
@@ -788,6 +782,12 @@
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C2:I2"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C13:J13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/yangyunfeng/计划表（修改）.xlsx
+++ b/Personal/yangyunfeng/计划表（修改）.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,19 +128,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大概浏览预习python的后一章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学习python“数字”和“注释”两个小节  
 英语单词（随机学习四级词汇表中50-80个单词）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大概浏览预习python的 后一章</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -237,6 +237,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -244,12 +247,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -553,11 +553,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -568,17 +568,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
@@ -633,38 +633,38 @@
       <c r="J4" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="7">
         <v>43118</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="9" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
@@ -676,32 +676,32 @@
       <c r="C9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="7">
         <v>43120</v>
       </c>
       <c r="B12" t="s">
@@ -719,57 +719,63 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
+      <c r="A13" s="8"/>
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="15" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="7">
         <v>43120</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
+      <c r="A16" s="8"/>
       <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="C16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C13:J13"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:J6"/>
@@ -782,12 +788,6 @@
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C2:I2"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C13:J13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/yangyunfeng/计划表（修改）.xlsx
+++ b/Personal/yangyunfeng/计划表（修改）.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小结第一章python学习内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学习python组织列表（sort永久性排序）
 英语单词（四级词汇表50-80个单词）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,13 +130,17 @@
   </si>
   <si>
     <t>大概浏览预习python的 后一章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小结第一章python学习 内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -237,9 +237,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -247,9 +244,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -553,11 +553,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -568,17 +568,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
@@ -633,38 +633,38 @@
       <c r="J4" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>43118</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="9" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
@@ -676,39 +676,39 @@
       <c r="C9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="C10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="12" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>43120</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -719,63 +719,57 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
+      <c r="A13" s="7"/>
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="C13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="15" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>43120</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-    </row>
-    <row r="16" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="C16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C13:J13"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:J6"/>
@@ -788,6 +782,12 @@
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C2:I2"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C13:J13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/yangyunfeng/计划表（修改）.xlsx
+++ b/Personal/yangyunfeng/计划表（修改）.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <r>
       <t xml:space="preserve">学习计划表（ </t>
@@ -120,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18：00-19：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学习python“数字”和“注释”两个小节  
 英语单词（随机学习四级词汇表中50-80个单词）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +130,59 @@
   </si>
   <si>
     <t>小结第一章python学习 内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9：20-12：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习操作列表4.1章
+学习英语单词50个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写好关于操作列表的重点笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习避免4.2章缩进错误
+学习50个英语单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写好关于缩进错误的笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18：00-19：30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结写好创建数值列表的笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习创建数值列表
+学习50个英语单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习”元组"这一小节
+回顾前几天的英语单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结写好“元组”的笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习“设置代码格式”这一小节
+学习50个英语单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续学习“设置代码格式”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,7 +243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -217,6 +266,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -224,7 +310,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -234,33 +320,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -272,6 +334,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -554,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -568,226 +678,411 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14">
+      <c r="A3" s="6">
         <v>43117</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="10">
         <v>43118</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="C6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
+      <c r="A9" s="6">
         <v>43119</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
+        <v>43120</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="15" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
+        <v>43120</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="18" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
+        <v>43124</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="12" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>43120</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="15" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
-        <v>43120</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="C18" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+      <c r="B19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="21" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
+        <v>43125</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="24" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
+        <v>43126</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="11"/>
+      <c r="B25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="27" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
+        <v>43127</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="11"/>
+      <c r="B28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="30" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
+        <v>43128</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="11"/>
+      <c r="B31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="33">
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C2:I2"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C13:J13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/yangyunfeng/计划表（修改）.xlsx
+++ b/Personal/yangyunfeng/计划表（修改）.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <r>
       <t xml:space="preserve">学习计划表（ </t>
@@ -183,6 +183,16 @@
   </si>
   <si>
     <t>继续学习“设置代码格式”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词完成80%
+python完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词完成50%
+python完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -243,7 +253,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -303,6 +313,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -310,7 +346,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -320,12 +356,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -335,53 +416,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -666,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:I31"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -678,378 +723,409 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
       <c r="J2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="20">
         <v>43117</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="3"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="3"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="26"/>
     </row>
     <row r="6" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>43118</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="4"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="4"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="9" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="20">
         <v>43119</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="2"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="25"/>
     </row>
     <row r="10" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="2"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="26"/>
     </row>
     <row r="12" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
+      <c r="A12" s="11">
         <v>43120</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="27"/>
     </row>
     <row r="13" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="4"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="28"/>
     </row>
     <row r="15" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
+      <c r="A15" s="11">
         <v>43120</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="4"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="4"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="26"/>
     </row>
     <row r="18" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
+      <c r="A18" s="11">
         <v>43124</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="4"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="27" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="4"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="26"/>
     </row>
     <row r="21" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="10">
+      <c r="A21" s="11">
         <v>43125</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="4"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="27" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="22" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="4"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="24" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="10">
+      <c r="A24" s="11">
         <v>43126</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="4"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="25"/>
     </row>
     <row r="25" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="4"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="26"/>
     </row>
     <row r="27" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
+      <c r="A27" s="11">
         <v>43127</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="2"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="25"/>
     </row>
     <row r="28" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="4"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="26"/>
     </row>
     <row r="30" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="10">
+      <c r="A30" s="11">
         <v>43128</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="2"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="25"/>
     </row>
     <row r="31" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="4"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="43">
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
     <mergeCell ref="C30:I30"/>
     <mergeCell ref="C31:I31"/>
     <mergeCell ref="A30:A31"/>
@@ -1066,23 +1142,6 @@
     <mergeCell ref="C21:I21"/>
     <mergeCell ref="C22:I22"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/yangyunfeng/计划表（修改）.xlsx
+++ b/Personal/yangyunfeng/计划表（修改）.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <r>
       <t xml:space="preserve">学习计划表（ </t>
@@ -168,24 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学习”元组"这一小节
-回顾前几天的英语单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结写好“元组”的笔记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习“设置代码格式”这一小节
-学习50个英语单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续学习“设置代码格式”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单词完成80%
 python完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +175,33 @@
   <si>
     <t>单词完成50%
 python完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习”定义元组"这一小节
+回顾前几天的英语单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结写好“定义元组”的笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习“遍历元组中的所有值”这一小节
+学习50个英语单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写好“遍历元祖中的所有值”的总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python完成
+单词完成75%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -356,6 +365,60 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -366,30 +429,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -397,36 +436,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -711,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -723,388 +732,407 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
       <c r="J2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20">
+      <c r="A3" s="12">
         <v>43117</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="25"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="26"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
+      <c r="A6" s="9">
         <v>43118</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="25"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="26"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20">
+      <c r="A9" s="12">
         <v>43119</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="25"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="12" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
+      <c r="A12" s="9">
         <v>43120</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="27"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="28"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="15" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11">
+      <c r="A15" s="9">
         <v>43120</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="25"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="26"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="6"/>
     </row>
     <row r="18" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
+      <c r="A18" s="9">
         <v>43124</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="27" t="s">
-        <v>33</v>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="26"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="6"/>
     </row>
     <row r="21" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11">
+      <c r="A21" s="9">
         <v>43125</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="27" t="s">
-        <v>34</v>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="26"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="6"/>
     </row>
     <row r="24" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11">
+      <c r="A24" s="9">
         <v>43126</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="25"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="25" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="26"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="11">
+      <c r="A27" s="9">
         <v>43127</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="25"/>
+      <c r="C27" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="28" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="26"/>
+      <c r="C28" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="6"/>
     </row>
     <row r="30" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="11">
+      <c r="A30" s="9">
         <v>43128</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="25"/>
+      <c r="C30" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="26"/>
+      <c r="C31" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A15:A16"/>
@@ -1121,27 +1149,12 @@
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J12:J13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/yangyunfeng/计划表（修改）.xlsx
+++ b/Personal/yangyunfeng/计划表（修改）.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <r>
       <t xml:space="preserve">学习计划表（ </t>
@@ -187,11 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学习“遍历元组中的所有值”这一小节
-学习50个英语单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>写好“遍历元祖中的所有值”的总结</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,6 +197,86 @@
   <si>
     <t>python完成
 单词完成75%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:20-12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00-19:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18：00-19:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习格式设置指南
+学习30个单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写好格式设置指南的总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习缩进的相关内容
+复习单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写好缩进的总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习“行长”相关内容
+学习30个单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写好“行长”的总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写好相关总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习其他格式设置指南
+学习30个单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习IF语句的第一小节
+学习30个单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习第二节条件测试
+复习单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写好条件测试的总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习“遍历元组中的所有值”和“修改元组变量”
+学习50个英语单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习使用“列表的一部分”
+学习50个单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写好列表的一部分的总结</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -355,7 +430,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -365,6 +440,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -376,12 +463,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -718,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30:J31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -732,386 +813,626 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
       <c r="J2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
+      <c r="A3" s="14">
         <v>43117</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="5"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="6"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="6" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
+      <c r="A6" s="5">
         <v>43118</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="5"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="6"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="9" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
+      <c r="A9" s="14">
         <v>43119</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="5"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="6"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="10"/>
     </row>
     <row r="12" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
+      <c r="A12" s="5">
         <v>43120</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="7"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="8"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="12"/>
     </row>
     <row r="15" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
+      <c r="A15" s="5">
         <v>43120</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="5"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="6"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="10"/>
     </row>
     <row r="18" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
+      <c r="A18" s="5">
         <v>43124</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="7" t="s">
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="6"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="10"/>
     </row>
     <row r="21" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9">
+      <c r="A21" s="5">
         <v>43125</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="7" t="s">
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="6"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="10"/>
     </row>
     <row r="24" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9">
+      <c r="A24" s="5">
         <v>43126</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="5" t="s">
-        <v>35</v>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="6"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="10"/>
     </row>
     <row r="27" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="9">
+      <c r="A27" s="5">
         <v>43127</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="7" t="s">
-        <v>36</v>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
+      <c r="A28" s="6"/>
       <c r="B28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="6"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="10"/>
     </row>
     <row r="30" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="9">
+      <c r="A30" s="5">
         <v>43128</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="5"/>
+      <c r="C30" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="31" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
+      <c r="A31" s="6"/>
       <c r="B31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="6"/>
+      <c r="C31" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="33" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>43129</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6"/>
+      <c r="B34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+    </row>
+    <row r="36" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>43130</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="6"/>
+      <c r="B37" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="39" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
+        <v>43131</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6"/>
+      <c r="B40" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+    </row>
+    <row r="42" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
+        <v>43132</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+    </row>
+    <row r="43" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="6"/>
+      <c r="B43" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="6"/>
+    </row>
+    <row r="45" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
+        <v>43133</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+    </row>
+    <row r="46" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="6"/>
+      <c r="B46" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+    </row>
+    <row r="48" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
+        <v>43134</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+    </row>
+    <row r="49" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="6"/>
+      <c r="B49" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+    </row>
+    <row r="51" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
+        <v>43135</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+    </row>
+    <row r="52" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="6"/>
+      <c r="B52" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="71">
     <mergeCell ref="C30:I30"/>
     <mergeCell ref="C31:I31"/>
     <mergeCell ref="A30:A31"/>
@@ -1155,6 +1476,34 @@
     <mergeCell ref="J30:J31"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="C43:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="C39:I39"/>
+    <mergeCell ref="C40:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="C36:I36"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="C51:I51"/>
+    <mergeCell ref="C52:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="C46:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="C48:I48"/>
+    <mergeCell ref="C49:I49"/>
+    <mergeCell ref="J48:J49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
